--- a/application/views/reportes/plantillas/consecutivos_detalle.xlsx
+++ b/application/views/reportes/plantillas/consecutivos_detalle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simon_bolivar\ecommerce\application\views\reportes\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyectos\simon-bolivar\application\views\reportes\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F987498-B370-44BC-85CE-E4DE2BA09722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59FA8E-6C7B-48A5-B2DC-6CC4B264D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{246915E6-D6CB-4724-BE7F-3DD66ECCE518}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{246915E6-D6CB-4724-BE7F-3DD66ECCE518}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -206,6 +203,9 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -230,22 +230,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>367665</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1691639</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74296</xdr:rowOff>
+      <xdr:colOff>1714499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9080C05-2633-4115-90CA-0D2D8C8EB6AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8245C3E6-4AAA-4949-9512-B28750AB5C37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -267,8 +267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="367665" y="55245"/>
-          <a:ext cx="1323974" cy="735331"/>
+          <a:off x="390525" y="85725"/>
+          <a:ext cx="1323974" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,52 +600,53 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="29.21875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="29.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+    <row r="4" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -662,19 +663,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E5" xr:uid="{5CABF269-3E83-4F48-A985-9ABC471B7B85}"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
